--- a/doc/ue_ds_server.xlsx
+++ b/doc/ue_ds_server.xlsx
@@ -3,11 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="简介" sheetId="9" r:id="rId1"/>
+    <sheet name="监听" sheetId="1" r:id="rId2"/>
+    <sheet name="连接" sheetId="2" r:id="rId3"/>
+    <sheet name="同步" sheetId="3" r:id="rId4"/>
+    <sheet name="短线重连" sheetId="5" r:id="rId5"/>
+    <sheet name="退出" sheetId="6" r:id="rId6"/>
+    <sheet name="和传统服的融合" sheetId="7" r:id="rId7"/>
+    <sheet name="性能" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +30,339 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+  <si>
+    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>加载新地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁之前的场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记载新场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldPackage = LoadPackage(nullptr, *URL.Map, (WorldContext.WorldType == EWorldType::PIE ? LOAD_PackageForPIE : LOAD_None));</t>
+  </si>
+  <si>
+    <t>GWorld = NewWorld;</t>
+  </si>
+  <si>
+    <t>设置Gworld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewWorld = UWorld::FindWorldInPackage(WorldPackage);</t>
+  </si>
+  <si>
+    <t>if (Pending == NULL &amp;&amp; (!GIsClient || URL.HasOption(TEXT("Listen"))))</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>if (!WorldContext.World()-&gt;Listen(URL))</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogNet, Error, TEXT("LoadMap: failed to Listen(%s)"), *URL.ToString());</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>设置监听客户端连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！开始监听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载场景其他信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadPackagesFully(WorldContext.World(), FULLYLOAD_Map, WorldContext.World()-&gt;PersistentLevel-&gt;GetOutermost()-&gt;GetName());</t>
+  </si>
+  <si>
+    <t>// Make sure "always loaded" sub-levels are fully loaded</t>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;FlushLevelStreaming(EFlushLevelStreamingType::Visibility);</t>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;CreateAISystem();</t>
+  </si>
+  <si>
+    <t>开始监听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UWorld::Listen( FURL&amp; InURL )</t>
+  </si>
+  <si>
+    <t>创建NetDriver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (GEngine-&gt;CreateNamedNetDriver(this, NAME_GameNetDriver, NAME_GameNetDriver))</t>
+  </si>
+  <si>
+    <t>NetDriver = GEngine-&gt;FindNamedNetDriver(this, NAME_GameNetDriver);</t>
+  </si>
+  <si>
+    <t>NetDriver-&gt;SetWorld(this);</t>
+  </si>
+  <si>
+    <t>FLevelCollection* const SourceCollection = FindCollectionByType(ELevelCollectionType::DynamicSourceLevels);</t>
+  </si>
+  <si>
+    <t>if (SourceCollection)</t>
+  </si>
+  <si>
+    <t>SourceCollection-&gt;SetNetDriver(NetDriver);</t>
+  </si>
+  <si>
+    <t>FLevelCollection* const StaticCollection = FindCollectionByType(ELevelCollectionType::StaticLevels);</t>
+  </si>
+  <si>
+    <t>if (StaticCollection)</t>
+  </si>
+  <si>
+    <t>StaticCollection-&gt;SetNetDriver(NetDriver);</t>
+  </si>
+  <si>
+    <t>！！！切换地图的时候创建了，何时销毁呢？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个先判断NetDriver存在不存在，不存在才销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetDriver-&gt;InitListen( this, InURL, false, Error )</t>
+  </si>
+  <si>
+    <t>初始化监听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UIpNetDriver::InitListen( FNetworkNotify* InNotify, FURL&amp; LocalURL, bool bReuseAddressAndPort, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>初始化监听的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitConnectionlessHandler();</t>
+  </si>
+  <si>
+    <t>初始化handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UNetDriver::InitConnectionlessHandler()</t>
+  </si>
+  <si>
+    <t>初始化Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConnectionlessHandler = MakeUnique&lt;PacketHandler&gt;(&amp;DDoS);</t>
+  </si>
+  <si>
+    <t>生成一个Packethandler对象，这个里面会包含所有收发的包队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加对应的HandlerComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConnectionlessHandler-&gt;Initialize(Handler::Mode::Server, MAX_PACKET_SIZE, true, nullptr, nullptr, NetDriverName);</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;HandlerComponent&gt; NewComponent =</t>
+  </si>
+  <si>
+    <t>ConnectionlessHandler-&gt;AddHandler(TEXT("Engine.EngineHandlerComponentFactory(StatelessConnectHandlerComponent)"), true);</t>
+  </si>
+  <si>
+    <t>ConnectionlessHandler-&gt;InitializeComponents();</t>
+  </si>
+  <si>
+    <t>这样子就可以单独调试跟代码看流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>编辑器下启动DS的指令：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"$(SolutionDir)MyTest001.uproject" -skipcompile -server -game -log</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitBase( false, InNotify, LocalURL, bReuseAddressAndPort, Error )</t>
+  </si>
+  <si>
+    <t>内部创建SCOKET，进行SOCKET相关的操作设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和传统的服务器结合问题？？？？！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS单线程服怎么集群化管理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据存盘？？目前看存不了！用作动态战场的化数据维护持久化？？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用限制：内部不能进行传统服的操作，或者客户端双链接？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传统服负责登录，养成操作等逻辑，DS负责战场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单建通道和传统Server交互？登录信息，角色详细信息等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Clean up networking</t>
+  </si>
+  <si>
+    <t>ShutdownWorldNetDriver(WorldContext.World());</t>
+  </si>
+  <si>
+    <t>关闭当前World的NetDriver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！每次开始新场景都会先销毁之前的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！见上面，场景切换时先销毁当前World的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次切换地图时：先销毁当前World，销毁当前World的NetDriver；在加载新场景，为新场景创建NetDriver那一套机制（监听SOCKET之类的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(customConstructor, config=Engine)</t>
+  </si>
+  <si>
+    <t>class ENGINE_API UWorld final : public UObject, public FNetworkNotify</t>
+  </si>
+  <si>
+    <t>/** The NAME_GameNetDriver game connection(s) for client/server communication */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(Transient)</t>
+  </si>
+  <si>
+    <t>class UNetDriver*</t>
+  </si>
+  <si>
+    <t>NetDriver;</t>
+  </si>
+  <si>
+    <t>本质上UNetDriver就是Uworld的一个成员，当然，分客户端和服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在服务器模式下，是伴随World创建和销毁的，World创建其创建，World销毁其销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Instance of this world's game-specific networking management */</t>
+  </si>
+  <si>
+    <t>class AGameNetworkManager*</t>
+  </si>
+  <si>
+    <t>NetworkManager;</t>
+  </si>
+  <si>
+    <t>！！！！这个是干什么的？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +386,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,8 +408,51 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>484375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000375" y="866775"/>
+          <a:ext cx="11200000" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +497,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +532,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +714,566 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:U75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C55" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C59" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D61" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D64" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C67" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D72" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/ue_ds_server.xlsx
+++ b/doc/ue_ds_server.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9893124-72B9-4737-9C0B-A562248592DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
     <sheet name="监听" sheetId="1" r:id="rId2"/>
-    <sheet name="连接" sheetId="2" r:id="rId3"/>
-    <sheet name="同步" sheetId="3" r:id="rId4"/>
-    <sheet name="短线重连" sheetId="5" r:id="rId5"/>
-    <sheet name="退出" sheetId="6" r:id="rId6"/>
-    <sheet name="和传统服的融合" sheetId="7" r:id="rId7"/>
-    <sheet name="性能" sheetId="8" r:id="rId8"/>
+    <sheet name="UDP监听收发处理" sheetId="10" r:id="rId3"/>
+    <sheet name="连接" sheetId="2" r:id="rId4"/>
+    <sheet name="同步" sheetId="3" r:id="rId5"/>
+    <sheet name="短线重连" sheetId="5" r:id="rId6"/>
+    <sheet name="退出" sheetId="6" r:id="rId7"/>
+    <sheet name="和传统服的融合" sheetId="7" r:id="rId8"/>
+    <sheet name="性能" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="125">
   <si>
     <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
   </si>
@@ -321,11 +323,169 @@
     <t>！！！！这个是干什么的？？？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UDP的RecvMulti，在Unix下面，对于UDP提供一种特殊用法，一次收取多个包：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUnixRecvMulti&amp; UnixMultiData = (FUnixRecvMulti&amp;)MultiData;</t>
+  </si>
+  <si>
+    <t>mmsghdr* Headers = UnixMultiData.Headers.Get();</t>
+  </si>
+  <si>
+    <t>const int TranslatedFlags = TranslateFlags(Flags);</t>
+  </si>
+  <si>
+    <t>int NumPacketsRead = recvmmsg(Socket, Headers, UnixMultiData.MaxNumPackets, TranslatedFlags, nullptr);</t>
+  </si>
+  <si>
+    <t>在服务器的收发里面会判断是不是启用了该标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bUseRecvMulti(CVarNetUseRecvMulti.GetValueOnAnyThread() != 0 &amp;&amp; InRMState != nullptr)</t>
+  </si>
+  <si>
+    <t>否则使用单个RecvFrom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool bReceivedPacket = Driver-&gt;GetSocket()-&gt;RecvFrom(CurrentPacket.Data.GetData(), MAX_PACKET_SIZE, BytesRead, *CurrentPacket.Address);</t>
+  </si>
+  <si>
+    <t>例如单独收包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecvFrom与RecvMulti区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单线程与多线程区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以修改为多线程，在独立线程专门进行接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认的UIPNetDriver在主线程进行网络接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::Tick( ELevelTick TickType, float DeltaSeconds )</t>
+  </si>
+  <si>
+    <t>void UIpNetDriver::TickDispatch(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>注册的回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BroadcastTickDispatch(DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>BroadcastPostTickDispatch();</t>
+  </si>
+  <si>
+    <t>if( NetDriver &amp;&amp; NetDriver-&gt;ServerConnection )</t>
+  </si>
+  <si>
+    <t>TickNetClient( DeltaSeconds );</t>
+  </si>
+  <si>
+    <t>主线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Process all incoming packets</t>
+  </si>
+  <si>
+    <t>for (FPacketIterator It(this); It; ++It)</t>
+  </si>
+  <si>
+    <t>！！！这个设计比较有意思，不断的收包然后里面处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理消息包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过UDP的来源Addr，找到对应的connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从MappedClientConnections里面找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个里面有可能是新的Accept消息包，也可能是正常的消息包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32 UIpNetDriver::FReceiveThreadRunnable::Run()</t>
+  </si>
+  <si>
+    <t>DispatchPacket(MoveTemp(IncomingPacket), BytesRead);</t>
+  </si>
+  <si>
+    <t>内部不断的recvFrom，然后插入到ReceiveQueue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终也是在主线程的ReceiveSinglePacket()里面取处理的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">内部会不断调用下面的函数进行RecvFrom </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool ReceiveSinglePacket()</t>
+  </si>
+  <si>
+    <t>void AdvanceCurrentPacket()</t>
+  </si>
+  <si>
+    <t>如果是Accept的消息包，则创建一个Connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNetConnection* UIpNetDriver::ProcessConnectionlessPacket(FReceivedPacketView&amp; PacketRef, const FPacketBufferView&amp; WorkingBuffer)</t>
+  </si>
+  <si>
+    <t>EIncomingResult Result = ConnectionlessHandler-&gt;IncomingConnectionless(PacketRef);</t>
+  </si>
+  <si>
+    <t>CurComponent.IncomingConnectionless(PacketRef);</t>
+  </si>
+  <si>
+    <t>void StatelessConnectHandlerComponent::IncomingConnectionless(FIncomingPacketRef PacketRef)</t>
+  </si>
+  <si>
+    <t>主线程发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,7 +585,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -713,10 +879,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
@@ -845,7 +1011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:U75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1195,7 +1361,435 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5760420-D009-4F67-B971-ABBAB065EA8D}">
+  <dimension ref="A3:T61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="E10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="E17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="F19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="F20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="T20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="K21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="R21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="H26" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="I27" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="H28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="D35" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="D36" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="D37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="L44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="2"/>
+      <c r="E47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B48" s="2"/>
+      <c r="E48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="2"/>
+      <c r="E49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="2"/>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="2"/>
+      <c r="E53" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="2"/>
+      <c r="E54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="2"/>
+      <c r="C60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1209,21 +1803,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1236,7 +1817,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1250,8 +1844,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1263,8 +1857,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/ue_ds_server.xlsx
+++ b/doc/ue_ds_server.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9893124-72B9-4737-9C0B-A562248592DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="170">
   <si>
     <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
   </si>
@@ -481,11 +480,171 @@
     <t>主线程发送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>新的连接上来之后的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断是否为HandShakePacket，如果是，则马上SendConnectChallenge给客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（主要通过包里面的Timestamp==0来判断是不是首包）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断是否为challenge消息包，主要通过Timestamp!=0.0来判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后对比客户端和服务器的cookie来判断challenge是否成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！有一个算法来生成cookie，只要传入参数一致，结果肯定也一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果成功，则返回ChallengeACK消息包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (Result == EIncomingResult::Success)</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bPassedChallenge = StatelessConnect-&gt;HasPassedChallenge(Address, bRestartedHandshake);</t>
+  </si>
+  <si>
+    <t>不算的处理握手的消息包，按照上面说的，如果完成了，则当前变量LastChallengeSuccessAddress就是自己，下面会用到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断以下是否通过challenge了，就是用上面LastChallengeSuccessAddress判断的，因为在一帧内操作，所以不影响别人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果通过challenge了，则创建玩家的UIpConnection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (bPassedChallenge)</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (!bRestartedHandshake)</t>
+  </si>
+  <si>
+    <t>ReturnVal = NewObject&lt;UIpConnection&gt;(GetTransientPackage(), NetConnectionClass);</t>
+  </si>
+  <si>
+    <t>ReturnVal-&gt;InitRemoteConnection(this, Socket, World ? World-&gt;URL : FURL(), *Address, USOCK_Open);</t>
+  </si>
+  <si>
+    <t>if (ReturnVal-&gt;Handler.IsValid())</t>
+  </si>
+  <si>
+    <t>ReturnVal-&gt;Handler-&gt;BeginHandshaking();</t>
+  </si>
+  <si>
+    <t>Notify-&gt;NotifyAcceptedConnection(ReturnVal);</t>
+  </si>
+  <si>
+    <t>AddClientConnection(ReturnVal);</t>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入到底层的ClientConnections里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为新链接上来的握手处理和握手后建立Connection后的消息通讯处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已链接的Connection消息处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要经过所谓的握手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不断的循环读取消息包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有connection，则走新链接那一套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connection = ProcessConnectionlessPacket(ReceivedPacket, WorkingBuffer);</t>
+  </si>
+  <si>
+    <t>如果有connection，则走connection这一套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connection-&gt;ReceivedRawPacket((uint8*)ReceivedPacket.DataView.GetData(), ReceivedPacket.DataView.NumBytes());</t>
+  </si>
+  <si>
+    <t>void UIpConnection::ReceivedRawPacket(void* Data, int32 Count)</t>
+  </si>
+  <si>
+    <t>Super::ReceivedRawPacket(Data, Count);</t>
+  </si>
+  <si>
+    <t>void UNetConnection::ReceivedRawPacket( void* InData, int32 Count )</t>
+  </si>
+  <si>
+    <t>const ProcessedPacket PacketHandler::Incoming_Internal(uint8* Packet, int32 CountBytes, bool bConnectionless, const TSharedPtr&lt;const FInternetAddr&gt;&amp; Address)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReplaceIncomingPacket(ProcessedPacketReader);</t>
+  </si>
+  <si>
+    <t>void PacketHandler::ReplaceIncomingPacket(FBitReader&amp; ReplacementPacket)</t>
+  </si>
+  <si>
+    <t>插入到队列中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncomingPacket.SetData(MoveTemp(TempPacketData), NewPacketSizeBits);</t>
+  </si>
+  <si>
+    <t>！！！ 何用呢？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReceivedPacket(Reader);</t>
+  </si>
+  <si>
+    <t>void UNetConnection::ReceivedPacket( FBitReader&amp; Reader, bool bIsReinjectedPacket)</t>
+  </si>
+  <si>
+    <t>这个还能理解，就是connection自己的接收Packet处理函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -879,7 +1038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1011,11 +1170,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1361,11 +1520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5760420-D009-4F67-B971-ABBAB065EA8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1789,22 +1948,393 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C22" s="3"/>
+      <c r="D22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D30" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E46" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>163</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1817,7 +2347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1830,7 +2360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1845,7 +2375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1858,7 +2388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/ue_ds_server.xlsx
+++ b/doc/ue_ds_server.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA5F26A-4D70-451D-A86B-3142BEA50B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
     <sheet name="监听" sheetId="1" r:id="rId2"/>
     <sheet name="UDP监听收发处理" sheetId="10" r:id="rId3"/>
     <sheet name="连接" sheetId="2" r:id="rId4"/>
-    <sheet name="同步" sheetId="3" r:id="rId5"/>
-    <sheet name="短线重连" sheetId="5" r:id="rId6"/>
-    <sheet name="退出" sheetId="6" r:id="rId7"/>
-    <sheet name="和传统服的融合" sheetId="7" r:id="rId8"/>
-    <sheet name="性能" sheetId="8" r:id="rId9"/>
+    <sheet name="登录（Join）" sheetId="11" r:id="rId5"/>
+    <sheet name="登录创建player" sheetId="13" r:id="rId6"/>
+    <sheet name="同步" sheetId="3" r:id="rId7"/>
+    <sheet name="短线重连" sheetId="5" r:id="rId8"/>
+    <sheet name="退出" sheetId="6" r:id="rId9"/>
+    <sheet name="和传统服的融合" sheetId="7" r:id="rId10"/>
+    <sheet name="性能" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="266">
   <si>
     <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
   </si>
@@ -640,12 +643,316 @@
     <t>这个还能理解，就是connection自己的接收Packet处理函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Listen Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dedicated Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似局域网联机一般的，使用其中某一个客户端作为服务器的模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专用服务器，服务器和客户端是剥离开来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！内部每次接收一个包（RecvFrom ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端连接仅仅是握手的流程，握手之后等于建立连接了，就开始加入了（类似登录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接的走前面的Incoming，已连接的走ReceivedRawPacket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case CHTYPE_Control:</t>
+  </si>
+  <si>
+    <t>Bunch.ChName = NAME_Control;</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>case CHTYPE_Voice:</t>
+  </si>
+  <si>
+    <t>Bunch.ChName = NAME_Voice;</t>
+  </si>
+  <si>
+    <t>case CHTYPE_Actor:</t>
+  </si>
+  <si>
+    <t>Bunch.ChName = NAME_Actor;</t>
+  </si>
+  <si>
+    <t>这个里面就开始区分ChType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel-&gt;ReceivedRawBunch( Bunch, bLocalSkipAck ); //warning: May destroy channel.</t>
+  </si>
+  <si>
+    <t>void UChannel::ReceivedRawBunch( FInBunch &amp; Bunch, bool &amp; bOutSkipAck )</t>
+  </si>
+  <si>
+    <t>bool bDeleted = ReceivedNextBunch( Bunch, bOutSkipAck );</t>
+  </si>
+  <si>
+    <t>bool UChannel::ReceivedNextBunch( FInBunch &amp; Bunch, bool &amp; bOutSkipAck )</t>
+  </si>
+  <si>
+    <t>return ReceivedSequencedBunch( *HandleBunch );</t>
+  </si>
+  <si>
+    <t>bool UChannel::ReceivedSequencedBunch( FInBunch&amp; Bunch )</t>
+  </si>
+  <si>
+    <t>ReceivedBunch( Bunch );</t>
+  </si>
+  <si>
+    <t>void UControlChannel::ReceivedBunch( FInBunch&amp; Bunch )</t>
+  </si>
+  <si>
+    <t>if (Pos == Bunch.GetPosBits() &amp;&amp; !Bunch.IsError())</t>
+  </si>
+  <si>
+    <t>switch (MessageType)</t>
+  </si>
+  <si>
+    <t>case NMT_Hello:</t>
+  </si>
+  <si>
+    <t>FNetControlMessage&lt;NMT_Hello&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_Welcome:</t>
+  </si>
+  <si>
+    <t>FNetControlMessage&lt;NMT_Welcome&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_Upgrade:</t>
+  </si>
+  <si>
+    <t>FNetControlMessage&lt;NMT_Upgrade&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_Challenge:</t>
+  </si>
+  <si>
+    <t>FNetControlMessage&lt;NMT_Challenge&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_Netspeed:</t>
+  </si>
+  <si>
+    <t>FNetControlMessage&lt;NMT_Netspeed&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_Login:</t>
+  </si>
+  <si>
+    <t>FNetControlMessage&lt;NMT_Login&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_Failure:</t>
+  </si>
+  <si>
+    <t>FNetControlMessage&lt;NMT_Failure&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_Join:</t>
+  </si>
+  <si>
+    <t>//FNetControlMessage&lt;NMT_Join&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_JoinSplit:</t>
+  </si>
+  <si>
+    <t>FNetControlMessage&lt;NMT_JoinSplit&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_Skip:</t>
+  </si>
+  <si>
+    <t>FNetControlMessage&lt;NMT_Skip&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_Abort:</t>
+  </si>
+  <si>
+    <t>FNetControlMessage&lt;NMT_Abort&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_PCSwap:</t>
+  </si>
+  <si>
+    <t>FNetControlMessage&lt;NMT_PCSwap&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_ActorChannelFailure:</t>
+  </si>
+  <si>
+    <t>FNetControlMessage&lt;NMT_ActorChannelFailure&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_DebugText:</t>
+  </si>
+  <si>
+    <t>FNetControlMessage&lt;NMT_DebugText&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_NetGUIDAssign:</t>
+  </si>
+  <si>
+    <t>FNetControlMessage&lt;NMT_NetGUIDAssign&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_EncryptionAck:</t>
+  </si>
+  <si>
+    <t>//FNetControlMessage&lt;NMT_EncryptionAck&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_BeaconWelcome:</t>
+  </si>
+  <si>
+    <t>//FNetControlMessage&lt;NMT_BeaconWelcome&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_BeaconJoin:</t>
+  </si>
+  <si>
+    <t>FNetControlMessage&lt;NMT_BeaconJoin&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_BeaconAssignGUID:</t>
+  </si>
+  <si>
+    <t>FNetControlMessage&lt;NMT_BeaconAssignGUID&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>case NMT_BeaconNetGUIDAck:</t>
+  </si>
+  <si>
+    <t>FNetControlMessage&lt;NMT_BeaconNetGUIDAck&gt;::Discard(Bunch);</t>
+  </si>
+  <si>
+    <t>default:</t>
+  </si>
+  <si>
+    <t>// if this fails, a case is missing above for an implemented message type</t>
+  </si>
+  <si>
+    <t>// or the connection is being sent potentially malformed packets</t>
+  </si>
+  <si>
+    <t>// @PotentialDOSAttackDetection</t>
+  </si>
+  <si>
+    <t>check(!FNetControlMessageInfo::IsRegistered(MessageType));</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogNet, Log, TEXT("Received unknown control channel message %i. Closing connection."), int32(MessageType));</t>
+  </si>
+  <si>
+    <t>Connection-&gt;Close();</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>里面根据消息包的ID，进行不同的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::NotifyControlMessage(UNetConnection* Connection, uint8 MessageType, class FInBunch&amp; Bunch)</t>
+  </si>
+  <si>
+    <t>World里面也会处理控制消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建PlayerControoler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创建对应的Pawn？？？？怎么创建？？？？怎么角色类型怎么动态设置PAWN？？？？？初始化位置怎么设置？？？？难道用PlayerStart设置？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::RestartPlayer(AController* NewPlayer)</t>
+  </si>
+  <si>
+    <t>AActor* StartSpot = FindPlayerStart(NewPlayer);</t>
+  </si>
+  <si>
+    <t>找到一个位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestartPlayerAtPlayerStart(NewPlayer, StartSpot);</t>
+  </si>
+  <si>
+    <t>设置PlayerController对应的Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::PostLogin(APlayerController* NewPlayer)</t>
+  </si>
+  <si>
+    <t>HandleStartingNewPlayer(NewPlayer);</t>
+  </si>
+  <si>
+    <t>APlayerController* UWorld::SpawnPlayActor(UPlayer* NewPlayer, ENetRole RemoteRole, const FURL&amp; InURL, const FUniqueNetIdRepl&amp; UniqueId, FString&amp; Error, uint8 InNetPlayerIndex)</t>
+  </si>
+  <si>
+    <t>Connection-&gt;Driver-&gt;Notify-&gt;NotifyControlMessage(Connection, MessageType, Bunch);</t>
+  </si>
+  <si>
+    <t>Connection-&gt;PlayerController = SpawnPlayActor( Connection, ROLE_AutonomousProxy, InURL, Connection-&gt;PlayerId, ErrorMsg );</t>
+  </si>
+  <si>
+    <t>！！！创建PlayerControoler了，这个和Connection对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APlayerController* const NewPlayerController = GameMode-&gt;Login(NewPlayer, RemoteRole, *InURL.Portal, Options, UniqueId, Error);</t>
+  </si>
+  <si>
+    <t>NewPlayerController-&gt;NetPlayerIndex = InNetPlayerIndex;</t>
+  </si>
+  <si>
+    <t>NewPlayerController-&gt;SetRole(ROLE_Authority);</t>
+  </si>
+  <si>
+    <t>NewPlayerController-&gt;SetReplicates(RemoteRole != ROLE_None);</t>
+  </si>
+  <si>
+    <t>NewPlayerController-&gt;SetPlayer(NewPlayer);</t>
+  </si>
+  <si>
+    <t>GameMode-&gt;PostLogin(NewPlayerController);</t>
+  </si>
+  <si>
+    <t>！！！每创建一个玩家，调用一次Postlogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,6 +991,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -705,11 +1020,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -769,6 +1085,199 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8AC1EE-AD87-0406-C283-FF7131A1662D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12030075" y="2095500"/>
+          <a:ext cx="6858000" cy="7086600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8B6DE5-D968-5547-FD76-40D331320BB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12077700" y="9267825"/>
+          <a:ext cx="6858000" cy="9744075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{026AFB2E-E409-47F0-8EA1-55D63C1ECF85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11582400" y="1190625"/>
+          <a:ext cx="6858000" cy="9744075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1038,11 +1547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1576,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>1</v>
       </c>
@@ -1075,61 +1584,76 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="N18" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>71</v>
       </c>
@@ -1169,8 +1693,36 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:U75"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -1520,7 +2072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:T61"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -1948,24 +2500,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" t="s">
         <v>97</v>
@@ -1977,7 +2529,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="D5" s="3" t="s">
         <v>153</v>
@@ -1988,7 +2540,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="D6" s="3" t="s">
         <v>106</v>
@@ -1998,8 +2550,11 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="D7" s="3">
         <v>1</v>
@@ -2012,7 +2567,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2023,7 +2578,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>2</v>
       </c>
@@ -2035,7 +2590,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>157</v>
@@ -2044,7 +2599,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2052,7 +2607,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2060,18 +2615,18 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>123</v>
       </c>
@@ -2330,11 +2885,711 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A01104-6DF5-4494-A5CE-1B599BF45158}">
+  <dimension ref="B2:F117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2325EEB8-C0EB-4D53-A156-965E07678EB8}">
+  <dimension ref="B3:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>264</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2346,36 +3601,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2388,11 +3615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/ue_ds_server.xlsx
+++ b/doc/ue_ds_server.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA5F26A-4D70-451D-A86B-3142BEA50B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="270">
   <si>
     <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
   </si>
@@ -947,11 +946,27 @@
     <t>！！！每创建一个玩家，调用一次Postlogin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>void UIpNetDriver::TickDispatch(float DeltaTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑问：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然是无连接的握手，服务器没保存状态，那么客户端第二次challengeresponse的cookie有无问题？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要服务器没记录状态，客户端要知道其cookie过程怎么办？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1098,13 +1113,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1159,13 +1174,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1547,7 +1562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1694,7 +1709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1707,7 +1722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1722,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U75"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -2072,10 +2087,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T61"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -2500,384 +2515,425 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:N64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="M3" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="D5" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="D6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>156</v>
-      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="D15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C18" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C21" s="3" t="s">
-        <v>129</v>
-      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="J21" s="2" t="s">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="J30" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C22" s="3"/>
-      <c r="D22" s="1" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C31" s="3"/>
+      <c r="D31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D30" s="1" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C34" s="2" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E39" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F43" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E44" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E45" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E46" s="1" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E55" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E47" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D48" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
         <v>163</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="N68" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E60" t="s">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C62" t="s">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2890,7 +2946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A01104-6DF5-4494-A5CE-1B599BF45158}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3443,10 +3499,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2325EEB8-C0EB-4D53-A156-965E07678EB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -3589,7 +3645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3602,7 +3658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3615,7 +3671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/ue_ds_server.xlsx
+++ b/doc/ue_ds_server.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2865EE9-FB79-4B72-8E05-BC3C10C20FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="830" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
@@ -23,6 +24,10 @@
     <sheet name="退出" sheetId="6" r:id="rId9"/>
     <sheet name="和传统服的融合" sheetId="7" r:id="rId10"/>
     <sheet name="性能" sheetId="8" r:id="rId11"/>
+    <sheet name="AGameModeBase" sheetId="15" r:id="rId12"/>
+    <sheet name="AGameStateBase" sheetId="14" r:id="rId13"/>
+    <sheet name="APlayerState" sheetId="16" r:id="rId14"/>
+    <sheet name="PlayerController" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="378">
   <si>
     <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
   </si>
@@ -885,88 +890,456 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在创建对应的Pawn？？？？怎么创建？？？？怎么角色类型怎么动态设置PAWN？？？？？初始化位置怎么设置？？？？难道用PlayerStart设置？？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>AActor* StartSpot = FindPlayerStart(NewPlayer);</t>
+  </si>
+  <si>
+    <t>找到一个位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestartPlayerAtPlayerStart(NewPlayer, StartSpot);</t>
+  </si>
+  <si>
+    <t>设置PlayerController对应的Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::PostLogin(APlayerController* NewPlayer)</t>
+  </si>
+  <si>
+    <t>HandleStartingNewPlayer(NewPlayer);</t>
+  </si>
+  <si>
+    <t>APlayerController* UWorld::SpawnPlayActor(UPlayer* NewPlayer, ENetRole RemoteRole, const FURL&amp; InURL, const FUniqueNetIdRepl&amp; UniqueId, FString&amp; Error, uint8 InNetPlayerIndex)</t>
+  </si>
+  <si>
+    <t>Connection-&gt;Driver-&gt;Notify-&gt;NotifyControlMessage(Connection, MessageType, Bunch);</t>
+  </si>
+  <si>
+    <t>Connection-&gt;PlayerController = SpawnPlayActor( Connection, ROLE_AutonomousProxy, InURL, Connection-&gt;PlayerId, ErrorMsg );</t>
+  </si>
+  <si>
+    <t>！！！创建PlayerControoler了，这个和Connection对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APlayerController* const NewPlayerController = GameMode-&gt;Login(NewPlayer, RemoteRole, *InURL.Portal, Options, UniqueId, Error);</t>
+  </si>
+  <si>
+    <t>NewPlayerController-&gt;NetPlayerIndex = InNetPlayerIndex;</t>
+  </si>
+  <si>
+    <t>NewPlayerController-&gt;SetRole(ROLE_Authority);</t>
+  </si>
+  <si>
+    <t>NewPlayerController-&gt;SetReplicates(RemoteRole != ROLE_None);</t>
+  </si>
+  <si>
+    <t>NewPlayerController-&gt;SetPlayer(NewPlayer);</t>
+  </si>
+  <si>
+    <t>GameMode-&gt;PostLogin(NewPlayerController);</t>
+  </si>
+  <si>
+    <t>！！！每创建一个玩家，调用一次Postlogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UIpNetDriver::TickDispatch(float DeltaTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑问：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然是无连接的握手，服务器没保存状态，那么客户端第二次challengeresponse的cookie有无问题？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要服务器没记录状态，客户端要知道其cookie过程怎么办？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创建对应的Pawn？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么创建？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么角色类型怎么动态设置PAWN？？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化位置怎么设置？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难道用PlayerStart设置？？？？</t>
   </si>
   <si>
     <t>void AGameModeBase::RestartPlayer(AController* NewPlayer)</t>
-  </si>
-  <si>
-    <t>AActor* StartSpot = FindPlayerStart(NewPlayer);</t>
-  </si>
-  <si>
-    <t>找到一个位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RestartPlayerAtPlayerStart(NewPlayer, StartSpot);</t>
-  </si>
-  <si>
-    <t>设置PlayerController对应的Pawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void AGameModeBase::PostLogin(APlayerController* NewPlayer)</t>
-  </si>
-  <si>
-    <t>HandleStartingNewPlayer(NewPlayer);</t>
-  </si>
-  <si>
-    <t>APlayerController* UWorld::SpawnPlayActor(UPlayer* NewPlayer, ENetRole RemoteRole, const FURL&amp; InURL, const FUniqueNetIdRepl&amp; UniqueId, FString&amp; Error, uint8 InNetPlayerIndex)</t>
-  </si>
-  <si>
-    <t>Connection-&gt;Driver-&gt;Notify-&gt;NotifyControlMessage(Connection, MessageType, Bunch);</t>
-  </si>
-  <si>
-    <t>Connection-&gt;PlayerController = SpawnPlayActor( Connection, ROLE_AutonomousProxy, InURL, Connection-&gt;PlayerId, ErrorMsg );</t>
-  </si>
-  <si>
-    <t>！！！创建PlayerControoler了，这个和Connection对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APlayerController* const NewPlayerController = GameMode-&gt;Login(NewPlayer, RemoteRole, *InURL.Portal, Options, UniqueId, Error);</t>
-  </si>
-  <si>
-    <t>NewPlayerController-&gt;NetPlayerIndex = InNetPlayerIndex;</t>
-  </si>
-  <si>
-    <t>NewPlayerController-&gt;SetRole(ROLE_Authority);</t>
-  </si>
-  <si>
-    <t>NewPlayerController-&gt;SetReplicates(RemoteRole != ROLE_None);</t>
-  </si>
-  <si>
-    <t>NewPlayerController-&gt;SetPlayer(NewPlayer);</t>
-  </si>
-  <si>
-    <t>GameMode-&gt;PostLogin(NewPlayerController);</t>
-  </si>
-  <si>
-    <t>！！！每创建一个玩家，调用一次Postlogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UIpNetDriver::TickDispatch(float DeltaTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疑问：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>既然是无连接的握手，服务器没保存状态，那么客户端第二次challengeresponse的cookie有无问题？？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要服务器没记录状态，客户端要知道其cookie过程怎么办？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在自己的Pawn类里面，设置AutoPossessPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建该类后，会自动在其void APawn::PreInitializeComponents()里面绑定到PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！一般情况下，不会设置系统的默认DefaultPawnClass，因为很狗血，这个东西牵扯到多职业和不固定位置（不能随机APlayerStart），没办法固定的设置一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS服的话，也需要动态生成，时机是？？？？？（肯定要是创建该PlayerController之后了，但多人的话，每个人顺序不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通网游，默认DefaultPawnClass=NULL，不会通过PlayerController来创建，而是自己在合适时机（一般是场景的BeginPlay）根据职业创建Character后，挂载到Controller上面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个和上面不一样的地方是：上面的方案不需要在PlayerController里面马上创建Pawn，而DS这种模式需要，玩家连接后就需要马上创建，没其他时机了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！重点注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前看，最合适的方法就是重写下面的类函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Tries to spawn the player's pawn, at the location returned by FindPlayerStart */</t>
+  </si>
+  <si>
+    <t>UFUNCTION(BlueprintCallable, Category=Game)</t>
+  </si>
+  <si>
+    <t>virtual void RestartPlayer(AController* NewPlayer);</t>
+  </si>
+  <si>
+    <t>这个在每一个场景的设置里面指定自己的GameMode类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何区分谁是谁？？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::PreLogin(const FString&amp; Options, const FString&amp; Address, const FUniqueNetIdRepl&amp; UniqueId, FString&amp; ErrorMessage)</t>
+  </si>
+  <si>
+    <t>进行预先的登录判断，根据Options传上来玩家的信息，去对应的PlayerList查找，KEY和秘钥都对上了在创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APlayerController* AGameModeBase::Login(UPlayer* NewPlayer, ENetRole InRemoteRole, const FString&amp; Portal, const FString&amp; Options, const FUniqueNetIdRepl&amp; UniqueId, FString&amp; ErrorMessage)</t>
+  </si>
+  <si>
+    <t>重写该函数，在父类创建完之后，给APlayerController设置其从属于哪一个玩家，方便后续创建玩家PAWN的时候直到谁是谁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameMode类，在DS下面客户端没有该类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载场景后设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;SetGameMode(URL);</t>
+  </si>
+  <si>
+    <t>！！！只有在服务器下面才会创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UWorld::SetGameMode(const FURL&amp; InURL)</t>
+  </si>
+  <si>
+    <t>if( IsServer() &amp;&amp; !AuthorityGameMode )</t>
+  </si>
+  <si>
+    <t>AuthorityGameMode = GetGameInstance()-&gt;CreateGameModeForURL(InURL, this);</t>
+  </si>
+  <si>
+    <t>return World-&gt;SpawnActor&lt;AGameModeBase&gt;(GameClass, SpawnInfo);</t>
+  </si>
+  <si>
+    <t>if( AuthorityGameMode != NULL )</t>
+  </si>
+  <si>
+    <t>return true;</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogWorld, Error, TEXT("Failed to spawn GameMode actor."));</t>
+  </si>
+  <si>
+    <t>return false;</t>
+  </si>
+  <si>
+    <t>GameState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！注意，仅仅是这个地方不依赖于GameMode创建了，但是会通过协议让客户端创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！一定要注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS服务器创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameState类，在DS下面客户端没该类，因为他是在gameMode里面创建的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::PreInitializeComponents()</t>
+  </si>
+  <si>
+    <t>FActorSpawnParameters SpawnInfo;</t>
+  </si>
+  <si>
+    <t>SpawnInfo.Instigator = GetInstigator();</t>
+  </si>
+  <si>
+    <t>SpawnInfo.ObjectFlags |= RF_Transient;</t>
+  </si>
+  <si>
+    <t>// We never want to save game states or network managers into a map</t>
+  </si>
+  <si>
+    <t>// Fallback to default GameState if none was specified.</t>
+  </si>
+  <si>
+    <t>if (GameStateClass == nullptr)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogGameMode, Warning, TEXT("No GameStateClass was specified in %s (%s)"), *GetName(), *GetClass()-&gt;GetName());</t>
+  </si>
+  <si>
+    <t>GameStateClass = AGameStateBase::StaticClass();</t>
+  </si>
+  <si>
+    <t>！！！肯定确保是有GameStateClass的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorld* World = GetWorld();</t>
+  </si>
+  <si>
+    <t>！！！创建AGameStateBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (GameState)</t>
+  </si>
+  <si>
+    <t>GameState-&gt;AuthorityGameMode = this;</t>
+  </si>
+  <si>
+    <t>// Only need NetworkManager for servers in net games</t>
+  </si>
+  <si>
+    <t>AWorldSettings* WorldSettings = World-&gt;GetWorldSettings();</t>
+  </si>
+  <si>
+    <t>！！！创建GameNetworkManager，这个干啥用的呢？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World-&gt;NetworkManager = WorldSettings-&gt;GameNetworkManagerClass ? World-&gt;SpawnActor&lt;AGameNetworkManager&gt;(WorldSettings-&gt;GameNetworkManagerClass, SpawnInfo) : nullptr;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitGameState();</t>
+  </si>
+  <si>
+    <t>相互设置一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::InitGameState()</t>
+  </si>
+  <si>
+    <t>GameState-&gt;GameModeClass = GetClass();</t>
+  </si>
+  <si>
+    <t>GameState-&gt;ReceivedGameModeClass();</t>
+  </si>
+  <si>
+    <t>GameState-&gt;SpectatorClass = SpectatorClass;</t>
+  </si>
+  <si>
+    <t>GameState-&gt;ReceivedSpectatorClass();</t>
+  </si>
+  <si>
+    <t>GameState = World-&gt;SpawnActor&lt;AGameStateBase&gt;(GameStateClass, SpawnInfo);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Spawn play actors for all active local players</t>
+  </si>
+  <si>
+    <t>if (WorldContext.OwningGameInstance != NULL)</t>
+  </si>
+  <si>
+    <t>for(auto It = WorldContext.OwningGameInstance-&gt;GetLocalPlayerIterator(); It; ++It)</t>
+  </si>
+  <si>
+    <t>FString Error2;</t>
+  </si>
+  <si>
+    <t>if(!(*It)-&gt;SpawnPlayActor(URL.ToString(1),Error2,WorldContext.World()))</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogEngine, Fatal, TEXT("Couldn't spawn player: %s"), *Error2);</t>
+  </si>
+  <si>
+    <t>根据LocalPlayer创建对应的PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool ULocalPlayer::SpawnPlayActor(const FString&amp; URL,FString&amp; OutError, UWorld* InWorld)</t>
+  </si>
+  <si>
+    <t>if ( InWorld-&gt;IsServer() )</t>
+  </si>
+  <si>
+    <t>// We never want to save player controllers into a map</t>
+  </si>
+  <si>
+    <t>PlayerController = InWorld-&gt;SpawnActor&lt;APlayerController&gt;(PCClass, SpawnInfo);</t>
+  </si>
+  <si>
+    <t>const int32 PlayerIndex = GEngine-&gt;GetGamePlayers(InWorld).Find(this);</t>
+  </si>
+  <si>
+    <t>PlayerController-&gt;NetPlayerIndex = PlayerIndex;</t>
+  </si>
+  <si>
+    <t>PlayerController-&gt;Player = this;</t>
+  </si>
+  <si>
+    <t>非服务器模式下，创建PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器模式下创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APlayerController::PostInitializeComponents()</t>
+  </si>
+  <si>
+    <t>if ( !IsPendingKill() &amp;&amp; (GetNetMode() != NM_Client) )</t>
+  </si>
+  <si>
+    <t>// create a new player replication info</t>
+  </si>
+  <si>
+    <t>InitPlayerState();</t>
+  </si>
+  <si>
+    <t>非客户端才创建玩家的PlayerState的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerState = World-&gt;SpawnActor&lt;APlayerState&gt;(PlayerStateClassToSpawn, SpawnInfo);</t>
+  </si>
+  <si>
+    <t>/** PlayerState containing replicated information about the player using this controller (only exists for players, not NPCs). */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(replicatedUsing = OnRep_PlayerState, BlueprintReadOnly, Category=Controller)</t>
+  </si>
+  <si>
+    <t>APlayerState* PlayerState;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCLASS(abstract, notplaceable, NotBlueprintable, HideCategories=(Collision,Rendering,"Utilities|Transformation")) </t>
+  </si>
+  <si>
+    <t>class ENGINE_API AController : public AActor, public INavAgentInterface</t>
+  </si>
+  <si>
+    <t>成员变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建PlayerState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AController::InitPlayerState()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World-&gt;SetGameState(GameState);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其从属于World，是World的一个变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** The current GameMode, valid only on the server */</t>
+  </si>
+  <si>
+    <t>class AGameModeBase*</t>
+  </si>
+  <si>
+    <t>AuthorityGameMode;</t>
+  </si>
+  <si>
+    <t>/** The replicated actor which contains game state information that can be accessible to clients. Direct access is not allowed, use GetGameState&lt;&gt;() */</t>
+  </si>
+  <si>
+    <t>class AGameStateBase*</t>
+  </si>
+  <si>
+    <t>GameState;</t>
+  </si>
+  <si>
+    <t>！！！从属于World</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从属于Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1562,7 +1935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1709,7 +2082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1722,7 +2095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1736,8 +2109,925 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4B2E9A-2E89-4925-88FF-20D40A0CC131}">
+  <dimension ref="A2:Q47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>371</v>
+      </c>
+      <c r="J12" t="s">
+        <v>372</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>374</v>
+      </c>
+      <c r="J16" t="s">
+        <v>375</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="C21" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="E23" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="E24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="D27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="E29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="F31" t="s">
+        <v>298</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="F32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="G34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="F36" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="G38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="G39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="E43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D8650B-A8C2-45C6-9207-5E4182680A33}">
+  <dimension ref="A2:S59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>371</v>
+      </c>
+      <c r="J12" t="s">
+        <v>372</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>374</v>
+      </c>
+      <c r="J16" t="s">
+        <v>375</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="D25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="E27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="E28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="E29" t="s">
+        <v>313</v>
+      </c>
+      <c r="F29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="E31" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="E32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="F34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="F35" t="s">
+        <v>318</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="E38" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="E39" t="s">
+        <v>335</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="E40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="E41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="F43" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="E46" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="E47" t="s">
+        <v>325</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="E48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="E50" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="G52" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="G53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="H54" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="H55" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="H57" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="H58" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFE123A-7A7B-45FD-92A8-46B8AD6BB8EE}">
+  <dimension ref="B2:Q53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E25" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E29" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>313</v>
+      </c>
+      <c r="F31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D47" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P47" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>359</v>
+      </c>
+      <c r="P48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q50" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="51" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q51" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q52" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="53" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q53" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C804D6E-D493-4A65-BF82-9C25A2C9F140}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:U75"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -2087,7 +3377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:T61"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -2515,10 +3805,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -2526,7 +3816,7 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2536,11 +3826,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D3" s="3"/>
       <c r="M3" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -2584,7 +3874,7 @@
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2946,10 +4236,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:F117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E28" workbookViewId="0">
       <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
@@ -3499,142 +4789,276 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B2:Q63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>247</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q16" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-      <c r="D13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="D17" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" t="s">
-        <v>261</v>
-      </c>
-    </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" t="s">
-        <v>262</v>
+      <c r="B18" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
       <c r="C20" t="s">
-        <v>264</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
+      <c r="C22" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
-        <v>253</v>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
       <c r="C24" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C30" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>251</v>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E37" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E40" s="2"/>
+      <c r="G40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D41" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="G41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E44" s="2"/>
+      <c r="F44" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E49" s="2"/>
+      <c r="G49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E50" s="2"/>
+      <c r="G50" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G53" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E59" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E62" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3645,7 +5069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3658,7 +5082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3671,7 +5095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/ue_ds_server.xlsx
+++ b/doc/ue_ds_server.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2865EE9-FB79-4B72-8E05-BC3C10C20FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0D6162-35F7-4395-AD72-50CA95AE7F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="830" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="886" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
-    <sheet name="监听" sheetId="1" r:id="rId2"/>
-    <sheet name="UDP监听收发处理" sheetId="10" r:id="rId3"/>
-    <sheet name="连接" sheetId="2" r:id="rId4"/>
-    <sheet name="登录（Join）" sheetId="11" r:id="rId5"/>
-    <sheet name="登录创建player" sheetId="13" r:id="rId6"/>
-    <sheet name="同步" sheetId="3" r:id="rId7"/>
-    <sheet name="短线重连" sheetId="5" r:id="rId8"/>
-    <sheet name="退出" sheetId="6" r:id="rId9"/>
-    <sheet name="和传统服的融合" sheetId="7" r:id="rId10"/>
-    <sheet name="性能" sheetId="8" r:id="rId11"/>
-    <sheet name="AGameModeBase" sheetId="15" r:id="rId12"/>
-    <sheet name="AGameStateBase" sheetId="14" r:id="rId13"/>
-    <sheet name="APlayerState" sheetId="16" r:id="rId14"/>
-    <sheet name="PlayerController" sheetId="17" r:id="rId15"/>
+    <sheet name="loadmap流程" sheetId="18" r:id="rId2"/>
+    <sheet name="监听" sheetId="1" r:id="rId3"/>
+    <sheet name="UDP监听收发处理" sheetId="10" r:id="rId4"/>
+    <sheet name="连接" sheetId="2" r:id="rId5"/>
+    <sheet name="登录（Join）" sheetId="11" r:id="rId6"/>
+    <sheet name="登录创建player" sheetId="13" r:id="rId7"/>
+    <sheet name="同步" sheetId="3" r:id="rId8"/>
+    <sheet name="短线重连" sheetId="5" r:id="rId9"/>
+    <sheet name="退出" sheetId="6" r:id="rId10"/>
+    <sheet name="和传统服的融合" sheetId="7" r:id="rId11"/>
+    <sheet name="性能" sheetId="8" r:id="rId12"/>
+    <sheet name="AGameModeBase" sheetId="15" r:id="rId13"/>
+    <sheet name="AGameStateBase" sheetId="14" r:id="rId14"/>
+    <sheet name="APlayerState" sheetId="16" r:id="rId15"/>
+    <sheet name="PlayerController" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="393">
   <si>
     <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
   </si>
@@ -1333,6 +1334,65 @@
   </si>
   <si>
     <t>从属于Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于Server模式下没有创建LocalPlayer，所以这个地方不会创建PlayerController，而是根据玩家登录之后在创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case NMT_Join:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同玩家连接后需要怎么创建自己的PlayerControlller??</t>
+  </si>
+  <si>
+    <t>！！！几个问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何时设置的Authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetPlayerIndex啥意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到NMT_Join消息后，创建连接对应的PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用GameMode的Login，返回PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC的NetPlayerindex都是0，因为0都是客户端的第一个LocalPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role=ROLE_Authority，服务器的控制角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后调用PostLogin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1673,6 +1733,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>207728</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>141896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19249FC-AB58-4F75-50BB-6F054F7C0D89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="7334250"/>
+          <a:ext cx="14571428" cy="7828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>360019</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{522E3EB3-CE54-8615-0D68-58030B725E5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="228600"/>
+          <a:ext cx="15447619" cy="6790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1939,7 +2092,7 @@
   <dimension ref="B3:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2082,6 +2235,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2094,7 +2262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2109,7 +2277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4B2E9A-2E89-4925-88FF-20D40A0CC131}">
   <dimension ref="A2:Q47"/>
   <sheetViews>
@@ -2377,7 +2545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D8650B-A8C2-45C6-9207-5E4182680A33}">
   <dimension ref="A2:S59"/>
   <sheetViews>
@@ -2756,12 +2924,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFE123A-7A7B-45FD-92A8-46B8AD6BB8EE}">
   <dimension ref="B2:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2783,7 +2951,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>0</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -3011,22 +3179,202 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C804D6E-D493-4A65-BF82-9C25A2C9F140}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E44515-B29C-4AFA-A1CE-FB89BCFDD428}">
+  <dimension ref="B4:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:U75"/>
   <sheetViews>
@@ -3376,7 +3724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:T61"/>
   <sheetViews>
@@ -3804,7 +4152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:N73"/>
   <sheetViews>
@@ -4235,7 +4583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:F117"/>
   <sheetViews>
@@ -4788,12 +5136,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4850,7 +5198,7 @@
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>256</v>
@@ -5068,7 +5416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5081,7 +5429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5092,19 +5440,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/ue_ds_server.xlsx
+++ b/doc/ue_ds_server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0D6162-35F7-4395-AD72-50CA95AE7F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F68FC3-C8A4-4681-B034-29EE70EBA69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="886" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="915" firstSheet="2" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="AGameStateBase" sheetId="14" r:id="rId14"/>
     <sheet name="APlayerState" sheetId="16" r:id="rId15"/>
     <sheet name="PlayerController" sheetId="17" r:id="rId16"/>
+    <sheet name="pawn" sheetId="19" r:id="rId17"/>
+    <sheet name="编辑器模式和非编辑器模式不同" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3183,7 +3185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C804D6E-D493-4A65-BF82-9C25A2C9F140}">
   <dimension ref="A3:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -3285,6 +3287,36 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8A7816-64B2-43EA-B3AD-8FDD1AEC94E3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091B1318-B05E-421B-AE54-017A2019A1CE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/ue_ds_server.xlsx
+++ b/doc/ue_ds_server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F68FC3-C8A4-4681-B034-29EE70EBA69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF9717E-6AB4-4119-BFAA-279790F89A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="915" firstSheet="2" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
@@ -2093,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3308,7 +3308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091B1318-B05E-421B-AE54-017A2019A1CE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30:H31"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_ds_server.xlsx
+++ b/doc/ue_ds_server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF9717E-6AB4-4119-BFAA-279790F89A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4C78AB-2BFF-4E66-AF10-77AD0E2F631C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="915" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="447">
   <si>
     <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
   </si>
@@ -1395,6 +1395,177 @@
   </si>
   <si>
     <t>最后调用PostLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器销毁一个对象，就及时的通知客户端进行销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool AActor::Destroy( bool bNetForce, bool bShouldModifyLevel )</t>
+  </si>
+  <si>
+    <t>World-&gt;DestroyActor( this, bNetForce, bShouldModifyLevel );</t>
+  </si>
+  <si>
+    <t>调用World的销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UWorld::DestroyActor( AActor* ThisActor, bool bNetForce, bool bShouldModifyLevel )</t>
+  </si>
+  <si>
+    <t>// Notify net drivers that this guy has been destroyed.</t>
+  </si>
+  <si>
+    <t>if (FWorldContext* Context = GEngine-&gt;GetWorldContextFromWorld(this))</t>
+  </si>
+  <si>
+    <t>for (FNamedNetDriver&amp; Driver : Context-&gt;ActiveNetDrivers)</t>
+  </si>
+  <si>
+    <t>if (Driver.NetDriver != nullptr &amp;&amp; Driver.NetDriver-&gt;ShouldReplicateActor(ThisActor))</t>
+  </si>
+  <si>
+    <t>Driver.NetDriver-&gt;NotifyActorDestroyed(ThisActor);</t>
+  </si>
+  <si>
+    <t>通知底层NetDirver对象销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UNetDriver::NotifyActorDestroyed( AActor* ThisActor, bool IsSeamlessTravel )</t>
+  </si>
+  <si>
+    <t>for( int32 i=ClientConnections.Num()-1; i&gt;=0; i-- )</t>
+  </si>
+  <si>
+    <t>UNetConnection* Connection = ClientConnections[i];</t>
+  </si>
+  <si>
+    <t>if( ThisActor-&gt;bNetTemporary )</t>
+  </si>
+  <si>
+    <t>Connection-&gt;SentTemporaries.Remove( ThisActor );</t>
+  </si>
+  <si>
+    <t>UActorChannel* Channel = Connection-&gt;FindActorChannelRef(ThisActor);</t>
+  </si>
+  <si>
+    <t>if( Channel )</t>
+  </si>
+  <si>
+    <t>check(Channel-&gt;OpenedLocally);</t>
+  </si>
+  <si>
+    <t>Channel-&gt;bClearRecentActorRefs = false;</t>
+  </si>
+  <si>
+    <t>Channel-&gt;Close(EChannelCloseReason::Destroyed);</t>
+  </si>
+  <si>
+    <t>const bool bDormantOrRecentlyDormant = NetworkObjectInfo &amp;&amp; (NetworkObjectInfo-&gt;DormantConnections.Contains(Connection) || NetworkObjectInfo-&gt;RecentlyDormantConnections.Contains(Connection));</t>
+  </si>
+  <si>
+    <t>if (bShouldCreateDestructionInfo || bDormantOrRecentlyDormant)</t>
+  </si>
+  <si>
+    <t>// Make a new destruction info if necessary. It is necessary if the actor is dormant or recently dormant because</t>
+  </si>
+  <si>
+    <t>// even though the client knew about the actor at some point, it doesn't have a channel to handle destruction.</t>
+  </si>
+  <si>
+    <t>DestructionInfo = CreateDestructionInfo(this, ThisActor, DestructionInfo);</t>
+  </si>
+  <si>
+    <t>if (DestructionInfo)</t>
+  </si>
+  <si>
+    <t>Connection-&gt;AddDestructionInfo(DestructionInfo);</t>
+  </si>
+  <si>
+    <t>Connection-&gt;NotifyActorDestroyed(ThisActor);</t>
+  </si>
+  <si>
+    <t>遍历底层所有的Connection，挨个通知对象销毁（前提是内部得有该Actor）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64 UActorChannel::Close(EChannelCloseReason Reason)</t>
+  </si>
+  <si>
+    <t>int64 NumBits = UChannel::Close(Reason);</t>
+  </si>
+  <si>
+    <t>int64 UChannel::Close(EChannelCloseReason Reason)</t>
+  </si>
+  <si>
+    <t>if ( !Closing &amp;&amp; ( Connection-&gt;State == USOCK_Open || Connection-&gt;State == USOCK_Pending ) &amp;&amp; !SentClosingBunch)</t>
+  </si>
+  <si>
+    <t>if ( ChIndex == 0 )</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogNet, Log, TEXT("UChannel::Close: Sending CloseBunch. ChIndex == 0. Name: %s"), *Describe());</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogNetDormancy, Verbose, TEXT("UChannel::Close: Sending CloseBunch. Reason: %s, %s"), LexToString(Reason), *Describe());</t>
+  </si>
+  <si>
+    <t>// Send a close notify, and wait for ack.</t>
+  </si>
+  <si>
+    <t>PacketHandler* Handler = Connection-&gt;Handler.Get();</t>
+  </si>
+  <si>
+    <t>if ((Handler == nullptr || Handler-&gt;IsFullyInitialized()) &amp;&amp; Connection-&gt;HasReceivedClientPacket())</t>
+  </si>
+  <si>
+    <t>FOutBunch CloseBunch( this, 1 );</t>
+  </si>
+  <si>
+    <t>SentClosingBunch = 1; //in case this send ends up failing and trying to reach back to close the connection, don't allow recursion.</t>
+  </si>
+  <si>
+    <t>CloseBunch.DebugString = FString::Printf(TEXT("%.2f Close: %s"), Connection-&gt;Driver-&gt;GetElapsedTime(), *Describe());</t>
+  </si>
+  <si>
+    <t>check(!CloseBunch.IsError());</t>
+  </si>
+  <si>
+    <t>check(CloseBunch.bClose);</t>
+  </si>
+  <si>
+    <t>CloseBunch.bReliable = 1;</t>
+  </si>
+  <si>
+    <t>CloseBunch.CloseReason = Reason;</t>
+  </si>
+  <si>
+    <t>SendBunch( &amp;CloseBunch, 0 );</t>
+  </si>
+  <si>
+    <t>NumBits = CloseBunch.GetNumBits();</t>
+  </si>
+  <si>
+    <t>通知客户端该对象销毁了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意原理：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个客户端一个Connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个Connection上都有一堆的ActorChannel，每一个同步的Actor一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ActorChannel和Actor挂钩，客户端服务器都是一一对应的e </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1736,6 +1907,55 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>531649</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>75438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1E2F1A-7814-9E74-D2D2-40E5AD58572B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="1943100"/>
+          <a:ext cx="14009524" cy="6095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2093,7 +2313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
@@ -2238,16 +2458,428 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:O89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="H2" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E77" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/ue_ds_server.xlsx
+++ b/doc/ue_ds_server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4C78AB-2BFF-4E66-AF10-77AD0E2F631C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8193F70-CC6A-4BF6-8C05-5F41889FCBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="915" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="915" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="447">
   <si>
     <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
   </si>
@@ -2460,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4820,8 +4820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:N73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5097,6 +5097,9 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="C43" s="2" t="s">
         <v>138</v>
       </c>
@@ -5804,7 +5807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
